--- a/outputs/CHENNAI2.xlsx
+++ b/outputs/CHENNAI2.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The page shown is a repository overview, which includes a list of files and recent commit history. For Abi, who prefers familiar technologies and is risk-averse, it is not immediately evident that this page is where she should look to find a list of issues. The relevant sections, such as "Issues," are not prominently highlighted on this page, which might lead to confusion. Additionally, Abi may not have the confidence to explore this page further to find the issues list, as it does not directly indicate that it contains the information she is looking for.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly shows a repository with various files and folders, which is a common place to look for issues in a project. ABI, being motivated to accomplish their task, would likely consider finding the list of issues as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to explore the repository to gather all relevant information, including issues.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: The "Issues" tab is clearly visible on the left sidebar, and the page prominently displays a list of issues with relevant details. Abi, who uses a comprehensive information processing style, will likely understand that clicking on "Issues" will show the list of issues, as it is a standard feature in repositories. The text and layout of the page provide enough context for her to confidently take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" tab is clearly visible on the left sidebar, and the list of issues is prominently displayed on the page. ABI, motivated to find an issue to solve, would recognize that clicking on "Issues" and then "List" is a logical step to view the list of issues. The page layout is straightforward and provides clear navigation, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: Upon clicking the "Issues" tab, Abi is directed to a page that clearly lists all the issues with detailed information such as issue titles, status (open or closed), and timestamps. This layout aligns well with Abi's comprehensive information processing style, as it provides a clear and organized view of all the issues. The presence of detailed issue information confirms to Abi that she has taken the right action and is making progress toward her goal of finding an issue to solve.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Issues" and "List," ABI will land on a page that clearly displays a list of issues. This page provides all the necessary information, such as issue titles, statuses, and timestamps, which are essential for ABI to find an issue to solve. The clear layout and comprehensive information align with ABI's motivation to accomplish their task and their comprehensive information processing style. ABI will know they are making progress toward their goal as the list of issues is prominently displayed, confirming they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists all issues, providing titles, statuses, and timestamps. This aligns with Abi's goal of finding the most appropriate issue to solve. The comprehensive listing of issues with relevant details supports Abi's information processing style, enabling her to gather the necessary information to make an informed decision. Therefore, Abi will likely consider this a step toward achieving her overall use case.</t>
+Why: ABI is motivated to find an issue to solve, and identifying the most appropriate issue is a logical and necessary step in this process. The page displaying the list of issues provides detailed information such as titles, statuses, and timestamps, which are essential for ABI to evaluate and select the most suitable issue. This aligns with ABI's comprehensive information processing style, as they would need to gather and assess all relevant information to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: The page clearly lists the issues with titles, statuses (open or closed), and timestamps, which provide enough context for Abi to read through and evaluate them. The structured layout and detailed information align well with Abi's comprehensive information processing style, allowing her to understand what to do at this step and make an informed decision about which issue to solve. The page is well-organized and provides the necessary information for Abi to take this action confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists various issues with relevant details such as titles, statuses, and timestamps. ABI, motivated to find an appropriate issue to solve, will understand that reading through these issues is a necessary step. The layout is straightforward and provides comprehensive information, which aligns with ABI's information processing style. This will help ABI feel confident in knowing what to do at this step and that the page is sufficient for taking this action.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it primarily shows the issue titles, statuses, and timestamps. This information might not be sufficient for Abi to comprehensively understand if an issue is appropriate for her to solve. Abi, who has low computer self-efficacy, might need more detailed descriptions or labels (e.g., difficulty level, priority) to confidently determine which issue to choose. The lack of detailed context for each issue might leave Abi unsure if she is making progress toward her goal or if she has all the necessary information to make an informed decision.</t>
+Why: While the page provides a list of issues, it may not give ABI all the information needed to determine the most appropriate issue to solve. ABI's comprehensive information processing style means they need detailed information to make an informed decision. The titles and brief descriptions may not be sufficient for ABI to feel confident they are making progress toward their goal. Additionally, ABI's low computer self-efficacy might make them uncertain if they have gathered enough information to proceed. They might need more detailed descriptions or additional context to feel assured they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: The page displays a list of issues with clickable links for each issue, including issue #136. The clickable nature of the issue titles is a standard web design practice, making it intuitive for Abi to understand that she can click on the issue title to get more information. The page layout and design provide clear affordances for this action, supporting Abi's comprehensive information processing style. Therefore, Abi will likely know what to do at this step and will feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues with their respective numbers, titles, and brief descriptions. ABI, motivated to find an appropriate issue to solve, will understand that clicking on an issue number (such as #136) will provide more detailed information about that issue. The layout is straightforward, and the action of clicking on an issue to get more details aligns with ABI's comprehensive information processing style. This step is intuitive and logical for ABI to take in order to gather more information.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: After clicking on issue #136, Abi lands on a page that provides detailed information about the issue, including a clear description of the problem, steps to reproduce, and suggested changes. This aligns with Abi's comprehensive information processing style, as it gives her all the necessary details to understand the issue fully. Abi will recognize that she did the right thing and is making progress toward her goal of finding an issue to solve, as the page provides the detailed context she needs to assess whether the issue is appropriate for her to tackle.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including the specific tasks required to resolve it, relevant files, and additional context. This detailed information aligns with ABI's comprehensive information processing style, allowing them to gather all necessary details to determine if this is the most appropriate issue to solve. The clear presentation of information will help ABI feel confident that they are making progress toward their goal and have done the right thing by clicking on the issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI2.xlsx
+++ b/outputs/CHENNAI2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository file list, which does not directly indicate where to find the list of issues. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think to look here for issues. The page does not provide clear guidance or links to the issues section, which could lead to confusion and hesitation due to ABI's low computer self-efficacy and risk-averse nature.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately think to look for issues here. The page does not provide explicit guidance or a clear path to finding the list of issues, which would be necessary for ABI to feel confident in taking this step.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows the "Issues" section in the left-hand navigation menu, which is a familiar and standard location for such a feature in many project management and repository tools. The list of issues is prominently displayed, making it straightforward for ABI to understand that clicking on "Issues" will lead to the list of issues. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as the page provides clear and relevant information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly shows the "Issues" section in the left sidebar, and the list of issues is prominently displayed. The action of hovering over "Issues" and clicking on "List" is straightforward and intuitive. The page layout and labels provide clear guidance, making it easy for ABI to understand what to do at this step. The comprehensive display of issues aligns with ABI's information processing style, and the clear navigation reduces the likelihood of ABI feeling overwhelmed or uncertain.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues," ABI will land on a page that clearly lists the issues, which is the intended goal. The page provides a comprehensive list of issues with relevant details such as titles, status (open/closed), and timestamps. This clear presentation of information aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring that ABI knows they are making progress toward their goal and has all the necessary information.</t>
+Why: After clicking on "Issues" and landing on the issues list page, ABI will see a comprehensive list of issues, which is the information she was seeking. The page clearly displays the issues, their status, and other relevant details, making it evident that she has made progress toward her goal of finding an issue to solve. The clear layout and detailed information align with ABI's comprehensive information processing style, ensuring she has all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues with relevant details such as titles, status, and timestamps, which are essential for ABI to find the most appropriate issue to solve. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as it provides the necessary information to evaluate and select an issue. Therefore, ABI would consider this a step toward achieving the overall use case.</t>
+Why: The page displays a list of issues, which is a logical next step for ABI to find an appropriate issue to solve. Given ABI's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that reviewing the list of issues is essential to identifying one that is suitable for a newcomer. The clear presentation of issues, including their status and details, aligns with her need for comprehensive information to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and organized list of issues, each with a title, status, and timestamp. This layout makes it straightforward for ABI to read through the issues and determine if there is an appropriate one to solve. The information is presented in a way that aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, making it easy for ABI to know what to do at this step.</t>
+Why: The page clearly lists various issues with relevant details such as titles, status, and dates. This layout provides ABI with the necessary information to read through and identify an appropriate issue to solve. Given ABI's motivation to accomplish tasks and her comprehensive information processing style, she will know that reading through the issues is the next logical step. The clear and organized presentation of the issues makes it easy for her to understand what to do and to proceed with confidence.</t>
         </is>
       </c>
     </row>
@@ -471,25 +471,25 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, the titles alone may not give ABI enough detailed information to determine if an issue is appropriate to solve. ABI, who prefers comprehensive information, might need to click on each issue to read the full details, which could be overwhelming and time-consuming. Additionally, ABI's low computer self-efficacy might make them hesitant to click on multiple issues without clear guidance. Therefore, ABI might not feel confident that they are making progress toward their goal or have all the information they need.</t>
+Why: While the page does list various issues, it does not provide specific indicators or tags that identify which issues are appropriate for newcomers. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not be able to easily determine which issues are suitable for her without additional guidance. The lack of explicit information or filtering options for newcomer-friendly issues means ABI might struggle to feel confident that she has found the right issue and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page lists various issues, but there is no specific indication or guidance that clicking on issue #136 will provide the information ABI needs to determine if it is appropriate for a newcomer. ABI, who has low confidence in unfamiliar computing tasks and prefers process-oriented learning, might hesitate to click on an issue without clear instructions or assurance that it will help her achieve her goal. The lack of explicit information about what clicking on the issue will reveal makes it less likely that ABI will feel confident in taking this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. The issue numbers and titles are prominently displayed, and clicking on an issue is a standard action in such interfaces. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as they will understand that clicking on an issue will provide more detailed information necessary to determine if it is appropriate to solve.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI lands on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring that ABI knows they are making progress toward their goal and has all the necessary information to determine if this issue is appropriate to solve.</t>
+Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including what needs to be done and specific instructions. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style. The detailed description and clear steps will help ABI understand that she is making progress toward her goal and provide her with the necessary information to proceed. The clarity and completeness of the information will reassure ABI that she did the right thing.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI2.xlsx
+++ b/outputs/CHENNAI2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately think to look for issues here. The page does not provide explicit guidance or a clear path to finding the list of issues, which would be necessary for ABI to feel confident in taking this step.</t>
+Facets: 1. Motivations, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about FLOSSCoach. There is no clear indication or direct link to a list of issues. Given Abi's low confidence in unfamiliar computing tasks and risk-averse nature, she is unlikely to think that this page will help her find a list of issues to solve. Additionally, the page does not provide any explicit instructions or guidance on how to find the list of issues, which would be necessary for Abi to feel motivated and confident in taking this step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly shows the "Issues" section in the left sidebar, and the list of issues is prominently displayed. The action of hovering over "Issues" and clicking on "List" is straightforward and intuitive. The page layout and labels provide clear guidance, making it easy for ABI to understand what to do at this step. The comprehensive display of issues aligns with ABI's information processing style, and the clear navigation reduces the likelihood of ABI feeling overwhelmed or uncertain.</t>
+Why: The "Issues" tab is clearly visible on the left-hand side of the page, and it is a common feature in repositories for tracking issues. Given Abi's comprehensive information processing style, she would likely read through the options available on the page. The label "Issues" is straightforward and self-explanatory, which would help Abi understand that clicking on it could lead her to a list of issues. This aligns with her need for clear and direct instructions, making her feel confident enough to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and landing on the issues list page, ABI will see a comprehensive list of issues, which is the information she was seeking. The page clearly displays the issues, their status, and other relevant details, making it evident that she has made progress toward her goal of finding an issue to solve. The clear layout and detailed information align with ABI's comprehensive information processing style, ensuring she has all the necessary information to proceed.</t>
+Why: Upon clicking the "Issues" tab, Abi is taken to a page that clearly lists various issues. The page is well-organized, with issues categorized and labeled, making it easy for Abi to understand that she has found the list of issues. This aligns with her motivation to find an issue to solve and her comprehensive information processing style, as the page provides a clear and detailed list of issues. The presence of labels and the structured format will help Abi feel confident that she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues, which is a logical next step for ABI to find an appropriate issue to solve. Given ABI's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that reviewing the list of issues is essential to identifying one that is suitable for a newcomer. The clear presentation of issues, including their status and details, aligns with her need for comprehensive information to make an informed decision.</t>
+Why: The page clearly lists various issues, which is directly aligned with Abi's goal of finding an issue to solve. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would recognize that reviewing this list is a necessary step toward identifying the most appropriate issue to solve. The structured and categorized format of the issues will help her feel that she is on the right path to achieving her overall use case.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with relevant details such as titles, status, and dates. This layout provides ABI with the necessary information to read through and identify an appropriate issue to solve. Given ABI's motivation to accomplish tasks and her comprehensive information processing style, she will know that reading through the issues is the next logical step. The clear and organized presentation of the issues makes it easy for her to understand what to do and to proceed with confidence.</t>
+Why: The page provides a clear and organized list of issues, each with a title and additional details such as labels and dates. This layout aligns well with Abi's comprehensive information processing style, allowing her to read through the issues systematically. The presence of labels and other metadata will help her identify which issues might be appropriate for a newcomer. Given her motivation to find an issue to solve, Abi will know that reading through the issues is the necessary next step and the page provides sufficient information for her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does list various issues, it does not provide specific indicators or tags that identify which issues are appropriate for newcomers. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not be able to easily determine which issues are suitable for her without additional guidance. The lack of explicit information or filtering options for newcomer-friendly issues means ABI might struggle to feel confident that she has found the right issue and is making progress toward her goal.</t>
+Why: While the page provides a list of issues, it does not explicitly indicate which issues are appropriate for newcomers. Abi's comprehensive information processing style means she needs clear and detailed information to feel confident she is making progress. The labels and titles alone may not provide enough context for her to determine which issues are suitable for her skill level. Additionally, given her low computer self-efficacy, Abi might struggle to interpret the relevance of each issue without more specific guidance. Therefore, she may not feel confident that she has done the right thing or is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page lists various issues, but there is no specific indication or guidance that clicking on issue #136 will provide the information ABI needs to determine if it is appropriate for a newcomer. ABI, who has low confidence in unfamiliar computing tasks and prefers process-oriented learning, might hesitate to click on an issue without clear instructions or assurance that it will help her achieve her goal. The lack of explicit information about what clicking on the issue will reveal makes it less likely that ABI will feel confident in taking this action.</t>
+Why: The page lists multiple issues, but it does not provide specific guidance or context about which issue might be appropriate for a newcomer. Abi's low computer self-efficacy means she might not feel confident in deciding which issue to click on without more explicit instructions. Additionally, her process-oriented learning style means she prefers step-by-step guidance, which is not provided here. Without clear indicators or instructions, Abi might hesitate to click on issue #136, unsure if it is the right action to take.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including what needs to be done and specific instructions. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style. The detailed description and clear steps will help ABI understand that she is making progress toward her goal and provide her with the necessary information to proceed. The clarity and completeness of the information will reassure ABI that she did the right thing.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides detailed information about the issue, it does not explicitly indicate that this issue is appropriate for a newcomer. Abi's comprehensive information processing style means she needs clear and specific guidance to feel confident she is making progress. The technical details and lack of explicit newcomer-friendly indicators might overwhelm her, given her low computer self-efficacy. Abi might not feel assured that she has done the right thing or that this issue is suitable for her skill level, leading to uncertainty about her progress toward her goal.</t>
         </is>
       </c>
     </row>
